--- a/3IG/Allemand/Résumé.xlsx
+++ b/3IG/Allemand/Résumé.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dark-\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dark-\Desktop\GitHub\Cours\3IG\Allemand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="831">
   <si>
     <t>N°</t>
   </si>
@@ -2516,10 +2516,10 @@
     <t>UNIT 9</t>
   </si>
   <si>
-    <t>am Wochennende</t>
-  </si>
-  <si>
     <t>le wknd</t>
+  </si>
+  <si>
+    <t>am Wochenende</t>
   </si>
 </sst>
 </file>
@@ -3228,6 +3228,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3246,16 +3279,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3303,24 +3330,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3330,16 +3339,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3695,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q353"/>
+  <dimension ref="A1:Q354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3730,19 +3730,19 @@
       <c r="D1" s="66"/>
       <c r="E1" s="22"/>
       <c r="F1" s="26"/>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="86"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="M1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
@@ -3751,15 +3751,15 @@
       <c r="D2" s="66"/>
       <c r="E2" s="23"/>
       <c r="F2" s="27"/>
-      <c r="H2" s="87"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
-      <c r="K2" s="88"/>
-      <c r="M2" s="65"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
@@ -3768,15 +3768,15 @@
       <c r="D3" s="66"/>
       <c r="E3" s="23"/>
       <c r="F3" s="27"/>
-      <c r="H3" s="87"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="88"/>
-      <c r="M3" s="65"/>
+      <c r="K3" s="67"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
       <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
@@ -3785,15 +3785,15 @@
       <c r="D4" s="66"/>
       <c r="E4" s="24"/>
       <c r="F4" s="28"/>
-      <c r="H4" s="89"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="69"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="90"/>
-      <c r="M4" s="68"/>
+      <c r="K4" s="70"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="69"/>
       <c r="O4" s="69"/>
       <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
+      <c r="Q4" s="79"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F5" s="25"/>
@@ -3849,7 +3849,7 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="80" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="1">
@@ -3885,7 +3885,7 @@
       <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="Q9" s="33"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="1">
         <v>11</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="1">
         <v>12</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="1">
         <v>13</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="1">
         <v>14</v>
       </c>
@@ -4309,10 +4309,10 @@
         <v>510</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="M21" s="80" t="s">
+      <c r="M21" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="N21" s="81"/>
+      <c r="N21" s="90"/>
       <c r="O21" s="1" t="s">
         <v>172</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="1">
         <v>15</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="Q22" s="55"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="1">
         <v>16</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="72"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="1">
         <v>17</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="1">
         <v>18</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="72"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="1">
         <v>19</v>
       </c>
@@ -4449,16 +4449,16 @@
         <v>87</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="M26" s="62" t="s">
+      <c r="M26" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="64"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="75"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="72"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="1">
         <v>20</v>
       </c>
@@ -4479,14 +4479,14 @@
         <v>583</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="M27" s="65"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="66"/>
       <c r="O27" s="66"/>
       <c r="P27" s="66"/>
-      <c r="Q27" s="67"/>
+      <c r="Q27" s="77"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="72"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="1">
         <v>21</v>
       </c>
@@ -4507,14 +4507,14 @@
         <v>584</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="M28" s="65"/>
+      <c r="M28" s="76"/>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
       <c r="P28" s="66"/>
-      <c r="Q28" s="67"/>
+      <c r="Q28" s="77"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="72"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="1">
         <v>22</v>
       </c>
@@ -4535,14 +4535,14 @@
         <v>585</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="M29" s="68"/>
+      <c r="M29" s="78"/>
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
       <c r="P29" s="69"/>
-      <c r="Q29" s="70"/>
+      <c r="Q29" s="79"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="72"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="1">
         <v>23</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="72"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="1">
         <v>24</v>
       </c>
@@ -4608,7 +4608,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="1">
         <v>25</v>
       </c>
@@ -4646,7 +4646,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="1">
         <v>26</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="Q33" s="52"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="72"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="1">
         <v>27</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="1">
         <v>28</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="Q35" s="52"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="1">
         <v>29</v>
       </c>
@@ -4780,7 +4780,7 @@
       <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="1">
         <v>30</v>
       </c>
@@ -4807,14 +4807,14 @@
       <c r="N37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O37" s="74" t="s">
+      <c r="O37" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="76"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="85"/>
     </row>
     <row r="38" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="1">
         <v>31</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="Q38" s="59"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="72"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="1">
         <v>32</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="73"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="9">
         <v>33</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="86" t="s">
         <v>161</v>
       </c>
       <c r="B41" s="1">
@@ -4913,7 +4913,7 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="1">
         <v>35</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="1">
         <v>36</v>
       </c>
@@ -4945,16 +4945,16 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="M43" s="62" t="s">
+      <c r="M43" s="73" t="s">
         <v>415</v>
       </c>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="64"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="75"/>
     </row>
     <row r="44" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="1">
         <v>37</v>
       </c>
@@ -4969,14 +4969,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="M44" s="65"/>
+      <c r="M44" s="76"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
       <c r="P44" s="66"/>
-      <c r="Q44" s="67"/>
+      <c r="Q44" s="77"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="1">
         <v>38</v>
       </c>
@@ -4985,14 +4985,14 @@
         <v>96</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="M45" s="65"/>
+      <c r="M45" s="76"/>
       <c r="N45" s="66"/>
       <c r="O45" s="66"/>
       <c r="P45" s="66"/>
-      <c r="Q45" s="67"/>
+      <c r="Q45" s="77"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="1">
         <v>39</v>
       </c>
@@ -5001,23 +5001,23 @@
         <v>97</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="91" t="s">
+      <c r="F46" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="65"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="76"/>
       <c r="N46" s="66"/>
       <c r="O46" s="66"/>
       <c r="P46" s="66"/>
-      <c r="Q46" s="67"/>
+      <c r="Q46" s="77"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="1">
         <v>40</v>
       </c>
@@ -5026,21 +5026,21 @@
         <v>98</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="68"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="78"/>
       <c r="N47" s="69"/>
       <c r="O47" s="69"/>
       <c r="P47" s="69"/>
-      <c r="Q47" s="70"/>
+      <c r="Q47" s="79"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="78"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="1">
         <v>41</v>
       </c>
@@ -5049,13 +5049,13 @@
         <v>99</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="93"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="96"/>
       <c r="M48" s="32"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -5063,7 +5063,7 @@
       <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="1">
         <v>42</v>
       </c>
@@ -5072,13 +5072,13 @@
         <v>100</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="93"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="96"/>
       <c r="M49" s="32"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -5086,7 +5086,7 @@
       <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="1">
         <v>43</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="Q50" s="36"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="1">
         <v>44</v>
       </c>
@@ -5147,7 +5147,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="1">
         <v>45</v>
       </c>
@@ -5194,7 +5194,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="1">
         <v>46</v>
       </c>
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="1">
         <v>47</v>
       </c>
@@ -5288,7 +5288,7 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="1">
         <v>48</v>
       </c>
@@ -5333,7 +5333,7 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="1">
         <v>49</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="Q56" s="36"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="1">
         <v>50</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="Q57" s="36"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="78"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="1">
         <v>51</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="Q58" s="36"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="78"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="1">
         <v>52</v>
       </c>
@@ -5468,7 +5468,7 @@
       <c r="Q59" s="36"/>
     </row>
     <row r="60" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="1">
         <v>53</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="Q60" s="36"/>
     </row>
     <row r="61" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="1">
         <v>54</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="Q61" s="36"/>
     </row>
     <row r="62" spans="1:17" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
+      <c r="A62" s="87"/>
       <c r="B62" s="1">
         <v>55</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="Q62" s="36"/>
     </row>
     <row r="63" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
+      <c r="A63" s="87"/>
       <c r="B63" s="1">
         <v>56</v>
       </c>
@@ -5568,7 +5568,7 @@
       <c r="Q63" s="36"/>
     </row>
     <row r="64" spans="1:17" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
+      <c r="A64" s="87"/>
       <c r="B64" s="1">
         <v>57</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="Q64" s="36"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="87"/>
       <c r="B65" s="1">
         <v>58</v>
       </c>
@@ -5612,7 +5612,7 @@
       <c r="Q65" s="38"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
+      <c r="A66" s="87"/>
       <c r="B66" s="1">
         <v>59</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="Q66" s="40"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="1">
         <v>60</v>
       </c>
@@ -5668,7 +5668,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="78"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="1">
         <v>61</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="Q68" s="40"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="78"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="1">
         <v>62</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="Q69" s="43"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
+      <c r="A70" s="87"/>
       <c r="B70" s="1">
         <v>63</v>
       </c>
@@ -5729,7 +5729,7 @@
       <c r="N70" s="29"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="1">
         <v>64</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="N71" s="29"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="78"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="1">
         <v>65</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="N72" s="29"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="87"/>
       <c r="B73" s="1">
         <v>66</v>
       </c>
@@ -5771,20 +5771,20 @@
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
       <c r="I73" s="44"/>
-      <c r="J73" s="85" t="s">
+      <c r="J73" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="K73" s="86"/>
-      <c r="M73" s="62" t="s">
+      <c r="K73" s="64"/>
+      <c r="M73" s="73" t="s">
         <v>620</v>
       </c>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="64"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="75"/>
     </row>
     <row r="74" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="79"/>
+      <c r="A74" s="88"/>
       <c r="B74" s="8">
         <v>67</v>
       </c>
@@ -5796,16 +5796,16 @@
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
       <c r="I74" s="44"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="88"/>
-      <c r="M74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="67"/>
+      <c r="M74" s="76"/>
       <c r="N74" s="66"/>
       <c r="O74" s="66"/>
       <c r="P74" s="66"/>
-      <c r="Q74" s="67"/>
+      <c r="Q74" s="77"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="82" t="s">
+      <c r="A75" s="91" t="s">
         <v>242</v>
       </c>
       <c r="B75" s="13">
@@ -5819,16 +5819,16 @@
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="87"/>
-      <c r="K75" s="88"/>
-      <c r="M75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="67"/>
+      <c r="M75" s="76"/>
       <c r="N75" s="66"/>
       <c r="O75" s="66"/>
       <c r="P75" s="66"/>
-      <c r="Q75" s="67"/>
+      <c r="Q75" s="77"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="83"/>
+      <c r="A76" s="92"/>
       <c r="B76" s="1">
         <v>69</v>
       </c>
@@ -5840,16 +5840,16 @@
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
       <c r="I76" s="44"/>
-      <c r="J76" s="89"/>
-      <c r="K76" s="90"/>
-      <c r="M76" s="65"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="70"/>
+      <c r="M76" s="76"/>
       <c r="N76" s="66"/>
       <c r="O76" s="66"/>
       <c r="P76" s="66"/>
-      <c r="Q76" s="67"/>
+      <c r="Q76" s="77"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="83"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="1">
         <v>70</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="Q77" s="33"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="83"/>
+      <c r="A78" s="92"/>
       <c r="B78" s="1">
         <v>71</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="Q78" s="33"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="83"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="1">
         <v>72</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="Q79" s="33"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="83"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="1">
         <v>73</v>
       </c>
@@ -5963,7 +5963,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="83"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="1">
         <v>74</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="Q81" s="33"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="83"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="1">
         <v>75</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="Q82" s="33"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="83"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="1">
         <v>76</v>
       </c>
@@ -6052,7 +6052,7 @@
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="83"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="1">
         <v>77</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="Q84" s="33"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="83"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="1">
         <v>78</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="Q85" s="33"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="83"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="1">
         <v>79</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="Q86" s="33"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
+      <c r="A87" s="92"/>
       <c r="B87" s="1">
         <v>80</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="Q87" s="33"/>
     </row>
     <row r="88" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="83"/>
+      <c r="A88" s="92"/>
       <c r="B88" s="1">
         <v>81</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="Q88" s="55"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="83"/>
+      <c r="A89" s="92"/>
       <c r="B89" s="1">
         <v>82</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="83"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="1">
         <v>83</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="1">
         <v>84</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="J91" s="29"/>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="1">
         <v>85</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="83"/>
+      <c r="A93" s="92"/>
       <c r="B93" s="1">
         <v>86</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="J93" s="29"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="83"/>
+      <c r="A94" s="92"/>
       <c r="B94" s="1">
         <v>87</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="J94" s="18"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="83"/>
+      <c r="A95" s="92"/>
       <c r="B95" s="1">
         <v>88</v>
       </c>
@@ -6271,7 +6271,7 @@
       <c r="J95" s="44"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="83"/>
+      <c r="A96" s="92"/>
       <c r="B96" s="1">
         <v>89</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="J96" s="44"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="83"/>
+      <c r="A97" s="92"/>
       <c r="B97" s="1">
         <v>90</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="J97" s="44"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="83"/>
+      <c r="A98" s="92"/>
       <c r="B98" s="1">
         <v>91</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="J98" s="44"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="83"/>
+      <c r="A99" s="92"/>
       <c r="B99" s="1">
         <v>92</v>
       </c>
@@ -6323,7 +6323,7 @@
       <c r="J99" s="44"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="83"/>
+      <c r="A100" s="92"/>
       <c r="B100" s="1">
         <v>93</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="J100" s="44"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="83"/>
+      <c r="A101" s="92"/>
       <c r="B101" s="1">
         <v>94</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="J101" s="44"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="83"/>
+      <c r="A102" s="92"/>
       <c r="B102" s="1">
         <v>95</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="J102" s="44"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="83"/>
+      <c r="A103" s="92"/>
       <c r="B103" s="1">
         <v>96</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="J103" s="44"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="83"/>
+      <c r="A104" s="92"/>
       <c r="B104" s="1">
         <v>97</v>
       </c>
@@ -6388,7 +6388,7 @@
       <c r="J104" s="44"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="83"/>
+      <c r="A105" s="92"/>
       <c r="B105" s="1">
         <v>98</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="J105" s="44"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="83"/>
+      <c r="A106" s="92"/>
       <c r="B106" s="1">
         <v>99</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="83"/>
+      <c r="A107" s="92"/>
       <c r="B107" s="1">
         <v>100</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="83"/>
+      <c r="A108" s="92"/>
       <c r="B108" s="1">
         <v>101</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="83"/>
+      <c r="A109" s="92"/>
       <c r="B109" s="1">
         <v>102</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="83"/>
+      <c r="A110" s="92"/>
       <c r="B110" s="1">
         <v>103</v>
       </c>
@@ -6456,7 +6456,7 @@
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="83"/>
+      <c r="A111" s="92"/>
       <c r="B111" s="1">
         <v>104</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="83"/>
+      <c r="A112" s="92"/>
       <c r="B112" s="1">
         <v>105</v>
       </c>
@@ -6478,7 +6478,7 @@
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="83"/>
+      <c r="A113" s="92"/>
       <c r="B113" s="1">
         <v>106</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="83"/>
+      <c r="A114" s="92"/>
       <c r="B114" s="1">
         <v>107</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="83"/>
+      <c r="A115" s="92"/>
       <c r="B115" s="1">
         <v>108</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="83"/>
+      <c r="A116" s="92"/>
       <c r="B116" s="1">
         <v>109</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="83"/>
+      <c r="A117" s="92"/>
       <c r="B117" s="1">
         <v>110</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="83"/>
+      <c r="A118" s="92"/>
       <c r="B118" s="1">
         <v>111</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="83"/>
+      <c r="A119" s="92"/>
       <c r="B119" s="1">
         <v>112</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="83"/>
+      <c r="A120" s="92"/>
       <c r="B120" s="1">
         <v>113</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="83"/>
+      <c r="A121" s="92"/>
       <c r="B121" s="1">
         <v>114</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="83"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="1">
         <v>115</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="83"/>
+      <c r="A123" s="92"/>
       <c r="B123" s="1">
         <v>116</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="83"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="1">
         <v>117</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="83"/>
+      <c r="A125" s="92"/>
       <c r="B125" s="1">
         <v>118</v>
       </c>
@@ -6621,7 +6621,7 @@
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="83"/>
+      <c r="A126" s="92"/>
       <c r="B126" s="1">
         <v>119</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="83"/>
+      <c r="A127" s="92"/>
       <c r="B127" s="1">
         <v>120</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="83"/>
+      <c r="A128" s="92"/>
       <c r="B128" s="1">
         <v>121</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="83"/>
+      <c r="A129" s="92"/>
       <c r="B129" s="1">
         <v>122</v>
       </c>
@@ -6665,7 +6665,7 @@
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="84"/>
+      <c r="A130" s="93"/>
       <c r="B130" s="8">
         <v>123</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="94" t="s">
+      <c r="A131" s="60" t="s">
         <v>391</v>
       </c>
       <c r="B131" s="7">
@@ -6691,7 +6691,7 @@
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="95"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="1">
         <v>125</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="95"/>
+      <c r="A133" s="61"/>
       <c r="B133" s="1">
         <v>126</v>
       </c>
@@ -6717,7 +6717,7 @@
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="95"/>
+      <c r="A134" s="61"/>
       <c r="B134" s="1">
         <v>127</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="95"/>
+      <c r="A135" s="61"/>
       <c r="B135" s="1">
         <v>128</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="95"/>
+      <c r="A136" s="61"/>
       <c r="B136" s="1">
         <v>129</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="95"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="1">
         <v>130</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="95"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="1">
         <v>131</v>
       </c>
@@ -6782,7 +6782,7 @@
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="95"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="1">
         <v>132</v>
       </c>
@@ -6795,7 +6795,7 @@
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="95"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="1">
         <v>133</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="95"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="1">
         <v>134</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="95"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="1">
         <v>135</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="95"/>
+      <c r="A143" s="61"/>
       <c r="B143" s="1">
         <v>136</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="95"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="1">
         <v>137</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="95"/>
+      <c r="A145" s="61"/>
       <c r="B145" s="1">
         <v>138</v>
       </c>
@@ -6873,7 +6873,7 @@
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="95"/>
+      <c r="A146" s="61"/>
       <c r="B146" s="1">
         <v>139</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="95"/>
+      <c r="A147" s="61"/>
       <c r="B147" s="1">
         <v>140</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="95"/>
+      <c r="A148" s="61"/>
       <c r="B148" s="1">
         <v>141</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="95"/>
+      <c r="A149" s="61"/>
       <c r="B149" s="1">
         <v>142</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="95"/>
+      <c r="A150" s="61"/>
       <c r="B150" s="1">
         <v>143</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="95"/>
+      <c r="A151" s="61"/>
       <c r="B151" s="1">
         <v>144</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="95"/>
+      <c r="A152" s="61"/>
       <c r="B152" s="1">
         <v>145</v>
       </c>
@@ -6964,7 +6964,7 @@
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="95"/>
+      <c r="A153" s="61"/>
       <c r="B153" s="1">
         <v>146</v>
       </c>
@@ -6977,7 +6977,7 @@
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="95"/>
+      <c r="A154" s="61"/>
       <c r="B154" s="1">
         <v>147</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="95"/>
+      <c r="A155" s="61"/>
       <c r="B155" s="1">
         <v>148</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="95"/>
+      <c r="A156" s="61"/>
       <c r="B156" s="1">
         <v>149</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="95"/>
+      <c r="A157" s="61"/>
       <c r="B157" s="1">
         <v>150</v>
       </c>
@@ -7029,7 +7029,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="95"/>
+      <c r="A158" s="61"/>
       <c r="B158" s="1">
         <v>151</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="95"/>
+      <c r="A159" s="61"/>
       <c r="B159" s="1">
         <v>152</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="95"/>
+      <c r="A160" s="61"/>
       <c r="B160" s="1">
         <v>153</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="95"/>
+      <c r="A161" s="61"/>
       <c r="B161" s="1">
         <v>154</v>
       </c>
@@ -7081,7 +7081,7 @@
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="95"/>
+      <c r="A162" s="61"/>
       <c r="B162" s="1">
         <v>155</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="95"/>
+      <c r="A163" s="61"/>
       <c r="B163" s="1">
         <v>156</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="95"/>
+      <c r="A164" s="61"/>
       <c r="B164" s="1">
         <v>157</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="95"/>
+      <c r="A165" s="61"/>
       <c r="B165" s="1">
         <v>158</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="95"/>
+      <c r="A166" s="61"/>
       <c r="B166" s="1">
         <v>159</v>
       </c>
@@ -7146,7 +7146,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="95"/>
+      <c r="A167" s="61"/>
       <c r="B167" s="1">
         <v>160</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="95"/>
+      <c r="A168" s="61"/>
       <c r="B168" s="1">
         <v>161</v>
       </c>
@@ -7172,7 +7172,7 @@
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="95"/>
+      <c r="A169" s="61"/>
       <c r="B169" s="1">
         <v>162</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="95"/>
+      <c r="A170" s="61"/>
       <c r="B170" s="1">
         <v>163</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="95"/>
+      <c r="A171" s="61"/>
       <c r="B171" s="1">
         <v>164</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="95"/>
+      <c r="A172" s="61"/>
       <c r="B172" s="1">
         <v>165</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="95"/>
+      <c r="A173" s="61"/>
       <c r="B173" s="1">
         <v>166</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="95"/>
+      <c r="A174" s="61"/>
       <c r="B174" s="1">
         <v>167</v>
       </c>
@@ -7250,7 +7250,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="95"/>
+      <c r="A175" s="61"/>
       <c r="B175" s="1">
         <v>168</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="95"/>
+      <c r="A176" s="61"/>
       <c r="B176" s="1">
         <v>169</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="95"/>
+      <c r="A177" s="61"/>
       <c r="B177" s="1">
         <v>170</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="95"/>
+      <c r="A178" s="61"/>
       <c r="B178" s="1">
         <v>171</v>
       </c>
@@ -7302,7 +7302,7 @@
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="95"/>
+      <c r="A179" s="61"/>
       <c r="B179" s="1">
         <v>172</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="95"/>
+      <c r="A180" s="61"/>
       <c r="B180" s="1">
         <v>173</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="95"/>
+      <c r="A181" s="61"/>
       <c r="B181" s="1">
         <v>174</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="95"/>
+      <c r="A182" s="61"/>
       <c r="B182" s="1">
         <v>175</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="95"/>
+      <c r="A183" s="61"/>
       <c r="B183" s="1">
         <v>176</v>
       </c>
@@ -7367,7 +7367,7 @@
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="95"/>
+      <c r="A184" s="61"/>
       <c r="B184" s="1">
         <v>177</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="95"/>
+      <c r="A185" s="61"/>
       <c r="B185" s="1">
         <v>178</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="95"/>
+      <c r="A186" s="61"/>
       <c r="B186" s="1">
         <v>179</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="95"/>
+      <c r="A187" s="61"/>
       <c r="B187" s="1">
         <v>180</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="95"/>
+      <c r="A188" s="61"/>
       <c r="B188" s="1">
         <v>181</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="95"/>
+      <c r="A189" s="61"/>
       <c r="B189" s="1">
         <v>182</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="95"/>
+      <c r="A190" s="61"/>
       <c r="B190" s="1">
         <v>183</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="95"/>
+      <c r="A191" s="61"/>
       <c r="B191" s="1">
         <v>184</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="95"/>
+      <c r="A192" s="61"/>
       <c r="B192" s="1">
         <v>185</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="95"/>
+      <c r="A193" s="61"/>
       <c r="B193" s="1">
         <v>186</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="95"/>
+      <c r="A194" s="61"/>
       <c r="B194" s="1">
         <v>187</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="95"/>
+      <c r="A195" s="61"/>
       <c r="B195" s="1">
         <v>188</v>
       </c>
@@ -7523,7 +7523,7 @@
       <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="95"/>
+      <c r="A196" s="61"/>
       <c r="B196" s="1">
         <v>189</v>
       </c>
@@ -7536,7 +7536,7 @@
       <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="95"/>
+      <c r="A197" s="61"/>
       <c r="B197" s="1">
         <v>190</v>
       </c>
@@ -7549,7 +7549,7 @@
       <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="95"/>
+      <c r="A198" s="61"/>
       <c r="B198" s="1">
         <v>191</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="95"/>
+      <c r="A199" s="61"/>
       <c r="B199" s="1">
         <v>192</v>
       </c>
@@ -7575,7 +7575,7 @@
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="95"/>
+      <c r="A200" s="61"/>
       <c r="B200" s="1">
         <v>193</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="95"/>
+      <c r="A201" s="61"/>
       <c r="B201" s="1">
         <v>194</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="95"/>
+      <c r="A202" s="61"/>
       <c r="B202" s="1">
         <v>195</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="95"/>
+      <c r="A203" s="61"/>
       <c r="B203" s="1">
         <v>196</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="95"/>
+      <c r="A204" s="61"/>
       <c r="B204" s="1">
         <v>197</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="95"/>
+      <c r="A205" s="61"/>
       <c r="B205" s="1">
         <v>198</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="95"/>
+      <c r="A206" s="61"/>
       <c r="B206" s="1">
         <v>199</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="95"/>
+      <c r="A207" s="61"/>
       <c r="B207" s="1">
         <v>200</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="E207" s="10"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="95"/>
+      <c r="A208" s="61"/>
       <c r="B208" s="1">
         <v>201</v>
       </c>
@@ -7690,7 +7690,7 @@
       <c r="E208" s="10"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="83" t="s">
+      <c r="A209" s="92" t="s">
         <v>564</v>
       </c>
       <c r="B209" s="45">
@@ -7705,7 +7705,7 @@
       <c r="E209" s="10"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="83"/>
+      <c r="A210" s="92"/>
       <c r="B210" s="45">
         <v>203</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="E210" s="10"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="83"/>
+      <c r="A211" s="92"/>
       <c r="B211" s="45">
         <v>204</v>
       </c>
@@ -7731,7 +7731,7 @@
       <c r="E211" s="10"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="83"/>
+      <c r="A212" s="92"/>
       <c r="B212" s="45">
         <v>205</v>
       </c>
@@ -7744,7 +7744,7 @@
       <c r="E212" s="10"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="83"/>
+      <c r="A213" s="92"/>
       <c r="B213" s="45">
         <v>206</v>
       </c>
@@ -7757,7 +7757,7 @@
       <c r="E213" s="10"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="83"/>
+      <c r="A214" s="92"/>
       <c r="B214" s="45">
         <v>207</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="E214" s="10"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="83"/>
+      <c r="A215" s="92"/>
       <c r="B215" s="45">
         <v>208</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="E215" s="10"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="83"/>
+      <c r="A216" s="92"/>
       <c r="B216" s="45">
         <v>209</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="83"/>
+      <c r="A217" s="92"/>
       <c r="B217" s="45">
         <v>210</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="E217" s="10"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="83"/>
+      <c r="A218" s="92"/>
       <c r="B218" s="45">
         <v>211</v>
       </c>
@@ -7822,7 +7822,7 @@
       <c r="E218" s="10"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="83"/>
+      <c r="A219" s="92"/>
       <c r="B219" s="45">
         <v>212</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="E219" s="10"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="83"/>
+      <c r="A220" s="92"/>
       <c r="B220" s="45">
         <v>213</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="E220" s="10"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="83"/>
+      <c r="A221" s="92"/>
       <c r="B221" s="45">
         <v>214</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="E221" s="10"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="83"/>
+      <c r="A222" s="92"/>
       <c r="B222" s="45">
         <v>215</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="E222" s="10"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="83"/>
+      <c r="A223" s="92"/>
       <c r="B223" s="45">
         <v>216</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="E223" s="10"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="83"/>
+      <c r="A224" s="92"/>
       <c r="B224" s="45">
         <v>217</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="E224" s="10"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="83"/>
+      <c r="A225" s="92"/>
       <c r="B225" s="45">
         <v>218</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="E225" s="10"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="83"/>
+      <c r="A226" s="92"/>
       <c r="B226" s="45">
         <v>219</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="E226" s="10"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="83"/>
+      <c r="A227" s="92"/>
       <c r="B227" s="45">
         <v>220</v>
       </c>
@@ -7939,7 +7939,7 @@
       <c r="E227" s="10"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="83"/>
+      <c r="A228" s="92"/>
       <c r="B228" s="45">
         <v>221</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="E228" s="10"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="83"/>
+      <c r="A229" s="92"/>
       <c r="B229" s="45">
         <v>222</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="83"/>
+      <c r="A230" s="92"/>
       <c r="B230" s="45">
         <v>223</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="E230" s="10"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="83"/>
+      <c r="A231" s="92"/>
       <c r="B231" s="45">
         <v>224</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="E231" s="10"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="83"/>
+      <c r="A232" s="92"/>
       <c r="B232" s="45">
         <v>225</v>
       </c>
@@ -8004,7 +8004,7 @@
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="83"/>
+      <c r="A233" s="92"/>
       <c r="B233" s="45">
         <v>226</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="E233" s="10"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="83"/>
+      <c r="A234" s="92"/>
       <c r="B234" s="45">
         <v>227</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="E234" s="10"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="83"/>
+      <c r="A235" s="92"/>
       <c r="B235" s="45">
         <v>228</v>
       </c>
@@ -8043,7 +8043,7 @@
       <c r="E235" s="10"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="83"/>
+      <c r="A236" s="92"/>
       <c r="B236" s="45">
         <v>229</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="E236" s="10"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="83"/>
+      <c r="A237" s="92"/>
       <c r="B237" s="45">
         <v>230</v>
       </c>
@@ -8069,7 +8069,7 @@
       <c r="E237" s="10"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="83"/>
+      <c r="A238" s="92"/>
       <c r="B238" s="45">
         <v>231</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="E238" s="10"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="83"/>
+      <c r="A239" s="92"/>
       <c r="B239" s="45">
         <v>232</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="E239" s="10"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="83"/>
+      <c r="A240" s="92"/>
       <c r="B240" s="45">
         <v>233</v>
       </c>
@@ -8108,7 +8108,7 @@
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="83"/>
+      <c r="A241" s="92"/>
       <c r="B241" s="45">
         <v>234</v>
       </c>
@@ -8121,7 +8121,7 @@
       <c r="E241" s="10"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="83"/>
+      <c r="A242" s="92"/>
       <c r="B242" s="45">
         <v>235</v>
       </c>
@@ -8134,7 +8134,7 @@
       <c r="E242" s="10"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="83"/>
+      <c r="A243" s="92"/>
       <c r="B243" s="45">
         <v>236</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="E243" s="10"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="83"/>
+      <c r="A244" s="92"/>
       <c r="B244" s="45">
         <v>237</v>
       </c>
@@ -8160,7 +8160,7 @@
       <c r="E244" s="10"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="83"/>
+      <c r="A245" s="92"/>
       <c r="B245" s="45">
         <v>238</v>
       </c>
@@ -8172,7 +8172,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="83"/>
+      <c r="A246" s="92"/>
       <c r="B246" s="45">
         <v>239</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="83"/>
+      <c r="A247" s="92"/>
       <c r="B247" s="45">
         <v>240</v>
       </c>
@@ -8196,7 +8196,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="83"/>
+      <c r="A248" s="92"/>
       <c r="B248" s="45">
         <v>241</v>
       </c>
@@ -8208,7 +8208,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="83"/>
+      <c r="A249" s="92"/>
       <c r="B249" s="45">
         <v>242</v>
       </c>
@@ -8220,7 +8220,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="84"/>
+      <c r="A250" s="93"/>
       <c r="B250" s="47">
         <v>243</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="94" t="s">
+      <c r="A251" s="60" t="s">
         <v>621</v>
       </c>
       <c r="B251" s="49">
@@ -8246,7 +8246,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="95"/>
+      <c r="A252" s="61"/>
       <c r="B252" s="45">
         <v>245</v>
       </c>
@@ -8258,7 +8258,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="95"/>
+      <c r="A253" s="61"/>
       <c r="B253" s="45">
         <v>246</v>
       </c>
@@ -8270,7 +8270,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="95"/>
+      <c r="A254" s="61"/>
       <c r="B254" s="45">
         <v>247</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="95"/>
+      <c r="A255" s="61"/>
       <c r="B255" s="45">
         <v>248</v>
       </c>
@@ -8294,7 +8294,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="95"/>
+      <c r="A256" s="61"/>
       <c r="B256" s="45">
         <v>249</v>
       </c>
@@ -8306,7 +8306,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="95"/>
+      <c r="A257" s="61"/>
       <c r="B257" s="45">
         <v>250</v>
       </c>
@@ -8318,7 +8318,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="95"/>
+      <c r="A258" s="61"/>
       <c r="B258" s="45">
         <v>251</v>
       </c>
@@ -8330,7 +8330,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="95"/>
+      <c r="A259" s="61"/>
       <c r="B259" s="45">
         <v>252</v>
       </c>
@@ -8342,7 +8342,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="95"/>
+      <c r="A260" s="61"/>
       <c r="B260" s="45">
         <v>253</v>
       </c>
@@ -8354,7 +8354,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="95"/>
+      <c r="A261" s="61"/>
       <c r="B261" s="45">
         <v>254</v>
       </c>
@@ -8366,7 +8366,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="95"/>
+      <c r="A262" s="61"/>
       <c r="B262" s="45">
         <v>255</v>
       </c>
@@ -8378,7 +8378,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="95"/>
+      <c r="A263" s="61"/>
       <c r="B263" s="45">
         <v>256</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="95"/>
+      <c r="A264" s="61"/>
       <c r="B264" s="45">
         <v>257</v>
       </c>
@@ -8402,7 +8402,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="95"/>
+      <c r="A265" s="61"/>
       <c r="B265" s="45">
         <v>258</v>
       </c>
@@ -8414,7 +8414,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="96"/>
+      <c r="A266" s="97"/>
       <c r="B266" s="47">
         <v>259</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="82" t="s">
+      <c r="A267" s="91" t="s">
         <v>692</v>
       </c>
       <c r="B267" s="49">
@@ -8440,7 +8440,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="83"/>
+      <c r="A268" s="92"/>
       <c r="B268" s="45">
         <v>261</v>
       </c>
@@ -8452,7 +8452,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="83"/>
+      <c r="A269" s="92"/>
       <c r="B269" s="46">
         <v>262</v>
       </c>
@@ -8464,7 +8464,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="83"/>
+      <c r="A270" s="92"/>
       <c r="B270" s="45">
         <v>263</v>
       </c>
@@ -8476,7 +8476,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="83"/>
+      <c r="A271" s="92"/>
       <c r="B271" s="46">
         <v>264</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="83"/>
+      <c r="A272" s="92"/>
       <c r="B272" s="45">
         <v>265</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="83"/>
+      <c r="A273" s="92"/>
       <c r="B273" s="46">
         <v>266</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="83"/>
+      <c r="A274" s="92"/>
       <c r="B274" s="45">
         <v>267</v>
       </c>
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="83"/>
+      <c r="A275" s="92"/>
       <c r="B275" s="46">
         <v>268</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="83"/>
+      <c r="A276" s="92"/>
       <c r="B276" s="45">
         <v>269</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="83"/>
+      <c r="A277" s="92"/>
       <c r="B277" s="46">
         <v>270</v>
       </c>
@@ -8560,7 +8560,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="83"/>
+      <c r="A278" s="92"/>
       <c r="B278" s="45">
         <v>271</v>
       </c>
@@ -8572,7 +8572,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="83"/>
+      <c r="A279" s="92"/>
       <c r="B279" s="46">
         <v>272</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="83"/>
+      <c r="A280" s="92"/>
       <c r="B280" s="45">
         <v>273</v>
       </c>
@@ -8596,7 +8596,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="83"/>
+      <c r="A281" s="92"/>
       <c r="B281" s="46">
         <v>274</v>
       </c>
@@ -8608,7 +8608,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="83"/>
+      <c r="A282" s="92"/>
       <c r="B282" s="45">
         <v>275</v>
       </c>
@@ -8620,7 +8620,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="83"/>
+      <c r="A283" s="92"/>
       <c r="B283" s="46">
         <v>276</v>
       </c>
@@ -8632,7 +8632,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="83"/>
+      <c r="A284" s="92"/>
       <c r="B284" s="45">
         <v>277</v>
       </c>
@@ -8644,7 +8644,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="83"/>
+      <c r="A285" s="92"/>
       <c r="B285" s="46">
         <v>278</v>
       </c>
@@ -8656,7 +8656,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="83"/>
+      <c r="A286" s="92"/>
       <c r="B286" s="45">
         <v>279</v>
       </c>
@@ -8668,7 +8668,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="83"/>
+      <c r="A287" s="92"/>
       <c r="B287" s="46">
         <v>280</v>
       </c>
@@ -8680,7 +8680,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="83"/>
+      <c r="A288" s="92"/>
       <c r="B288" s="45">
         <v>281</v>
       </c>
@@ -8692,7 +8692,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="84"/>
+      <c r="A289" s="93"/>
       <c r="B289" s="50">
         <v>282</v>
       </c>
@@ -8704,7 +8704,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="60" t="s">
+      <c r="A290" s="71" t="s">
         <v>828</v>
       </c>
       <c r="B290" s="45">
@@ -8718,7 +8718,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="61"/>
+      <c r="A291" s="72"/>
       <c r="B291" s="46">
         <v>284</v>
       </c>
@@ -8730,7 +8730,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="61"/>
+      <c r="A292" s="72"/>
       <c r="B292" s="1">
         <v>285</v>
       </c>
@@ -8742,687 +8742,692 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="61"/>
-      <c r="B293" s="1">
+      <c r="A293" s="72"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="D293" s="15" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="72"/>
+      <c r="B294" s="1">
         <v>286</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="C294" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="D293" s="15" t="s">
+      <c r="D294" s="15" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="61"/>
-      <c r="B294" s="1">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="72"/>
+      <c r="B295" s="1">
         <v>287</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C295" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="D294" s="15" t="s">
+      <c r="D295" s="15" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="61"/>
-      <c r="B295" s="1">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="72"/>
+      <c r="B296" s="1">
         <v>288</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C296" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="D295" s="15" t="s">
+      <c r="D296" s="15" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="61"/>
-      <c r="B296" s="1">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="72"/>
+      <c r="B297" s="1">
         <v>289</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C297" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="D296" s="15" t="s">
+      <c r="D297" s="15" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="61"/>
-      <c r="B297" s="1">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="72"/>
+      <c r="B298" s="1">
         <v>290</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="C298" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="D297" s="15" t="s">
+      <c r="D298" s="15" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="61"/>
-      <c r="B298" s="1">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="72"/>
+      <c r="B299" s="1">
         <v>291</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="C299" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="D298" s="15" t="s">
+      <c r="D299" s="15" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="61"/>
-      <c r="B299" s="1">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="72"/>
+      <c r="B300" s="1">
         <v>292</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C300" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="D299" s="15" t="s">
+      <c r="D300" s="15" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="61"/>
-      <c r="B300" s="1">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="72"/>
+      <c r="B301" s="1">
         <v>293</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="C301" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="D300" s="15" t="s">
+      <c r="D301" s="15" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="61"/>
-      <c r="B301" s="1">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="72"/>
+      <c r="B302" s="1">
         <v>294</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="C302" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="D301" s="15" t="s">
+      <c r="D302" s="15" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="61"/>
-      <c r="B302" s="1">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="72"/>
+      <c r="B303" s="1">
         <v>295</v>
       </c>
-      <c r="C302" s="15" t="s">
+      <c r="C303" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="D302" s="15" t="s">
+      <c r="D303" s="15" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="61"/>
-      <c r="B303" s="1">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="72"/>
+      <c r="B304" s="1">
         <v>296</v>
       </c>
-      <c r="C303" s="15" t="s">
+      <c r="C304" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="D303" s="15" t="s">
+      <c r="D304" s="15" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="61"/>
-      <c r="B304" s="1">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="72"/>
+      <c r="B305" s="1">
         <v>297</v>
       </c>
-      <c r="C304" s="15" t="s">
+      <c r="C305" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="D304" s="15" t="s">
+      <c r="D305" s="15" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A305" s="61"/>
-      <c r="B305" s="1">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="72"/>
+      <c r="B306" s="1">
         <v>298</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C306" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="D305" s="15" t="s">
+      <c r="D306" s="15" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A306" s="61"/>
-      <c r="B306" s="1">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="72"/>
+      <c r="B307" s="1">
         <v>299</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C307" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="D306" s="15" t="s">
+      <c r="D307" s="15" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A307" s="61"/>
-      <c r="B307" s="1">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="72"/>
+      <c r="B308" s="1">
         <v>300</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="C308" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="D307" s="15" t="s">
+      <c r="D308" s="15" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A308" s="61"/>
-      <c r="B308" s="1">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="72"/>
+      <c r="B309" s="1">
         <v>301</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="C309" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D308" s="15" t="s">
+      <c r="D309" s="15" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A309" s="61"/>
-      <c r="B309" s="1">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="72"/>
+      <c r="B310" s="1">
         <v>302</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="C310" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="D309" s="15" t="s">
+      <c r="D310" s="15" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A310" s="61"/>
-      <c r="B310" s="1">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="72"/>
+      <c r="B311" s="1">
         <v>303</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="C311" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="D310" s="15" t="s">
+      <c r="D311" s="15" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A311" s="61"/>
-      <c r="B311" s="1">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="72"/>
+      <c r="B312" s="1">
         <v>304</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="C312" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D311" s="15" t="s">
+      <c r="D312" s="15" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A312" s="61"/>
-      <c r="B312" s="1">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="72"/>
+      <c r="B313" s="1">
         <v>305</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="C313" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="D312" s="15" t="s">
+      <c r="D313" s="15" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A313" s="61"/>
-      <c r="B313" s="1">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" s="72"/>
+      <c r="B314" s="1">
         <v>306</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="C314" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D313" s="15" t="s">
+      <c r="D314" s="15" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A314" s="61"/>
-      <c r="B314" s="1">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="72"/>
+      <c r="B315" s="1">
         <v>307</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="C315" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D314" s="15" t="s">
+      <c r="D315" s="15" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A315" s="61"/>
-      <c r="B315" s="1">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="72"/>
+      <c r="B316" s="1">
         <v>308</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="C316" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D315" s="15" t="s">
+      <c r="D316" s="15" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A316" s="61"/>
-      <c r="B316" s="1">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="72"/>
+      <c r="B317" s="1">
         <v>309</v>
       </c>
-      <c r="C316" s="15" t="s">
+      <c r="C317" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="D316" s="15" t="s">
+      <c r="D317" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="I316" t="s">
+      <c r="I317" t="s">
         <v>786</v>
       </c>
-      <c r="J316" t="s">
+      <c r="J317" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A317" s="61"/>
-      <c r="B317" s="1">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="72"/>
+      <c r="B318" s="1">
         <v>310</v>
       </c>
-      <c r="C317" s="15" t="s">
+      <c r="C318" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="D317" s="15" t="s">
+      <c r="D318" s="15" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A318" s="61"/>
-      <c r="B318" s="1">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" s="72"/>
+      <c r="B319" s="1">
         <v>311</v>
       </c>
-      <c r="C318" s="15" t="s">
+      <c r="C319" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="D318" s="15" t="s">
+      <c r="D319" s="15" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A319" s="61"/>
-      <c r="B319" s="1">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" s="72"/>
+      <c r="B320" s="1">
         <v>312</v>
       </c>
-      <c r="C319" s="15" t="s">
+      <c r="C320" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="D319" s="15" t="s">
+      <c r="D320" s="15" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A320" s="61"/>
-      <c r="B320" s="1">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="72"/>
+      <c r="B321" s="1">
         <v>313</v>
       </c>
-      <c r="C320" s="15" t="s">
+      <c r="C321" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="D320" s="15" t="s">
+      <c r="D321" s="15" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="61"/>
-      <c r="B321" s="1">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="72"/>
+      <c r="B322" s="1">
         <v>314</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="C322" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="D321" s="15" t="s">
+      <c r="D322" s="15" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="61"/>
-      <c r="B322" s="1">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="72"/>
+      <c r="B323" s="1">
         <v>315</v>
       </c>
-      <c r="C322" s="15" t="s">
+      <c r="C323" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="D322" s="15" t="s">
+      <c r="D323" s="15" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="61"/>
-      <c r="B323" s="1">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="72"/>
+      <c r="B324" s="1">
         <v>316</v>
       </c>
-      <c r="C323" s="15" t="s">
+      <c r="C324" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="D323" s="15" t="s">
+      <c r="D324" s="15" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="61"/>
-      <c r="B324" s="1">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="72"/>
+      <c r="B325" s="1">
         <v>317</v>
       </c>
-      <c r="C324" s="15" t="s">
+      <c r="C325" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D324" s="15" t="s">
+      <c r="D325" s="15" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="61"/>
-      <c r="B325" s="1">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="72"/>
+      <c r="B326" s="1">
         <v>318</v>
       </c>
-      <c r="C325" s="15" t="s">
+      <c r="C326" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="D325" s="15" t="s">
+      <c r="D326" s="15" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="61"/>
-      <c r="B326" s="1">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="72"/>
+      <c r="B327" s="1">
         <v>319</v>
       </c>
-      <c r="C326" s="15" t="s">
+      <c r="C327" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="D326" s="15" t="s">
+      <c r="D327" s="15" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="61"/>
-      <c r="B327" s="1">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="72"/>
+      <c r="B328" s="1">
         <v>320</v>
       </c>
-      <c r="C327" s="15" t="s">
+      <c r="C328" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="D327" s="15" t="s">
+      <c r="D328" s="15" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="61"/>
-      <c r="B328" s="1">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="72"/>
+      <c r="B329" s="1">
         <v>321</v>
       </c>
-      <c r="C328" s="15" t="s">
+      <c r="C329" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="D328" s="15" t="s">
+      <c r="D329" s="15" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="61"/>
-      <c r="B329" s="1">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="72"/>
+      <c r="B330" s="1">
         <v>322</v>
       </c>
-      <c r="C329" s="15" t="s">
+      <c r="C330" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="D329" s="15" t="s">
+      <c r="D330" s="15" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="61"/>
-      <c r="B330" s="1">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="72"/>
+      <c r="B331" s="1">
         <v>323</v>
       </c>
-      <c r="C330" s="15" t="s">
+      <c r="C331" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="D330" s="15" t="s">
+      <c r="D331" s="15" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="61"/>
-      <c r="B331" s="9">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="72"/>
+      <c r="B332" s="9">
         <v>324</v>
       </c>
-      <c r="C331" s="15" t="s">
+      <c r="C332" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="D331" s="15" t="s">
+      <c r="D332" s="15" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="61"/>
-      <c r="B332" s="1">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="72"/>
+      <c r="B333" s="1">
         <v>325</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="61"/>
-      <c r="B333" s="1">
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="72"/>
+      <c r="B334" s="1">
         <v>326</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="C334" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="61"/>
-      <c r="B334" s="1">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="72"/>
+      <c r="B335" s="1">
         <v>327</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="C335" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="61"/>
-      <c r="B335" s="1">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="72"/>
+      <c r="B336" s="1">
         <v>328</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="61"/>
-      <c r="B336" s="1">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="72"/>
+      <c r="B337" s="1">
         <v>329</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="61"/>
-      <c r="B337" s="1">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="72"/>
+      <c r="B338" s="1">
         <v>330</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="61"/>
-      <c r="B338" s="1">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="72"/>
+      <c r="B339" s="1">
         <v>331</v>
       </c>
-      <c r="C338" s="14" t="s">
+      <c r="C339" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="D338" s="14" t="s">
+      <c r="D339" s="14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="61"/>
-      <c r="B339" s="1">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="72"/>
+      <c r="B340" s="1">
         <v>332</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="C340" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="D339" s="14" t="s">
+      <c r="D340" s="14" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="61"/>
-      <c r="B340" s="1">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="72"/>
+      <c r="B341" s="1">
         <v>333</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="61"/>
-      <c r="B341" s="1">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="72"/>
+      <c r="B342" s="1">
         <v>334</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="61"/>
-      <c r="B342" s="1">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="72"/>
+      <c r="B343" s="1">
         <v>335</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="61"/>
-      <c r="B343" s="1">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="72"/>
+      <c r="B344" s="1">
         <v>336</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="61"/>
-      <c r="B344" s="1">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="72"/>
+      <c r="B345" s="1">
         <v>337</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="61"/>
-      <c r="B345" s="1">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="72"/>
+      <c r="B346" s="1">
         <v>338</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="C346" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="61"/>
-      <c r="B346" s="1">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="72"/>
+      <c r="B347" s="1">
         <v>339</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="61"/>
-      <c r="B347" s="1">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="72"/>
+      <c r="B348" s="1">
         <v>340</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="61"/>
-      <c r="B348" s="1">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="72"/>
+      <c r="B349" s="1">
         <v>341</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B349" s="10"/>
-      <c r="C349" s="10"/>
-      <c r="D349" s="10"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B350" s="10"/>
@@ -9444,11 +9449,18 @@
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
     </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B354" s="10"/>
+      <c r="C354" s="10"/>
+      <c r="D354" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A267:A289"/>
+    <mergeCell ref="A209:A250"/>
     <mergeCell ref="A131:A208"/>
     <mergeCell ref="H1:K4"/>
-    <mergeCell ref="A290:A348"/>
+    <mergeCell ref="A290:A349"/>
     <mergeCell ref="M1:Q4"/>
     <mergeCell ref="A8:A40"/>
     <mergeCell ref="O37:Q37"/>
@@ -9462,8 +9474,6 @@
     <mergeCell ref="J73:K76"/>
     <mergeCell ref="F46:L49"/>
     <mergeCell ref="A251:A266"/>
-    <mergeCell ref="A267:A289"/>
-    <mergeCell ref="A209:A250"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
